--- a/chatbot/Sample Qs.xlsx
+++ b/chatbot/Sample Qs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dehong Tan\Desktop\NUS\EBA5004 Practical Language Processing\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74558D4-D2FF-488C-AF40-6C0AC89E9FA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3867C8F7-993B-4286-86AD-64FAF45774D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E954C41-85D9-4A4F-A89B-494B47D202DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9E954C41-85D9-4A4F-A89B-494B47D202DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="By Aspect" sheetId="1" r:id="rId1"/>
+    <sheet name="By Response" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
   <si>
     <t>What gives confidence in these earnings results?</t>
   </si>
@@ -250,13 +251,211 @@
   </si>
   <si>
     <t>Why have sales not been up to expectations?</t>
+  </si>
+  <si>
+    <t>tokenise-pull out nouns-</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>What is the general tone of management?</t>
+  </si>
+  <si>
+    <t>Is management optimistic?</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>What is the overall outlook for the company as a whole?</t>
+  </si>
+  <si>
+    <t>Sentiment Score</t>
+  </si>
+  <si>
+    <t>Sentences</t>
+  </si>
+  <si>
+    <t>What is the outlook for share price of the company?</t>
+  </si>
+  <si>
+    <t>What are investment plans ahead?</t>
+  </si>
+  <si>
+    <t>What causes margin to decline ?</t>
+  </si>
+  <si>
+    <t>How are company's expenses trending?</t>
+  </si>
+  <si>
+    <t>Is management optimistic about maintaining and expanding margins?</t>
+  </si>
+  <si>
+    <t>Are there risks to current profit margin from any upcoming expenses?</t>
+  </si>
+  <si>
+    <t>Can we expect new product launches or acquisitions that can boost earnings in the coming financial year?</t>
+  </si>
+  <si>
+    <t>Which are the exciting regions and target markets management is looking at right now?</t>
+  </si>
+  <si>
+    <t>Is the company developing any new product in the pipeline?</t>
+  </si>
+  <si>
+    <t>Is management expecting earnings catalysts to come from organic growth or inorganic expansions this year?</t>
+  </si>
+  <si>
+    <t>Is company expected to be active on the merger and acquistion front this year?</t>
+  </si>
+  <si>
+    <t>Will there be any new upcoming new products or services launches that we can look forward to?</t>
+  </si>
+  <si>
+    <t>Are earnings from acquisitions expected to grow from here?</t>
+  </si>
+  <si>
+    <t>Is management planning major capital expenditure to expand capacity?</t>
+  </si>
+  <si>
+    <t>Is there room for our production capacility and factory utilisation rate to go up?</t>
+  </si>
+  <si>
+    <t>Which are the best performing segments in the company?</t>
+  </si>
+  <si>
+    <t>Which category of products have been selling the most?</t>
+  </si>
+  <si>
+    <t>Which are the top selling entities by product and geography?</t>
+  </si>
+  <si>
+    <t>Is company gaining or losing market share?</t>
+  </si>
+  <si>
+    <t>What does management feel about the competitive landscape in the near term for the company?</t>
+  </si>
+  <si>
+    <t>What are some downside challenges for the company in the coming year?</t>
+  </si>
+  <si>
+    <t>What is the CEO's feel about the new challengers in the industry?</t>
+  </si>
+  <si>
+    <t>Is CEO optimistic about the current pandemic risks subsiding within the next year</t>
+  </si>
+  <si>
+    <t>What are some industry challenges that we can expect going forward?</t>
+  </si>
+  <si>
+    <t>There has been some new competitors on the block - What is the CEO's sentiment towards them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we expect heightened risks from the economic slowdown </t>
+  </si>
+  <si>
+    <t>Is the supply chain disruption in China expected to pose any challenges for company?</t>
+  </si>
+  <si>
+    <t>Is the global shutdown or protests in the city likely to be detrimental to the operations of the company</t>
+  </si>
+  <si>
+    <t>How are cashflows of the company and can we expect more paring down of debt going forward?</t>
+  </si>
+  <si>
+    <t>The company seem over leverage are there plans to decrease our liabilities?</t>
+  </si>
+  <si>
+    <t>The company seems too highly geared would there be plans to deleverage to reduce interest costs?</t>
+  </si>
+  <si>
+    <t>What is CEO's outlook on the debt refinancing situation of the company</t>
+  </si>
+  <si>
+    <t>Is the company liquidity situation healthy?</t>
+  </si>
+  <si>
+    <t>Is management expected to take on more financing to grow the business?</t>
+  </si>
+  <si>
+    <t>Interest rates are trending down are there plans to use more debt to grow the business given the low cost of financing?</t>
+  </si>
+  <si>
+    <t>How is the company planning to pay down the debt on its balance sheet?</t>
+  </si>
+  <si>
+    <t>Is the recent virus outbreak expected to pose huge challenges for the company</t>
+  </si>
+  <si>
+    <t>How is the broad sentiment of management with regards to company growth?</t>
+  </si>
+  <si>
+    <t>Is CEO optimistic about 2020 for the company</t>
+  </si>
+  <si>
+    <t>How far can stock price go this year?</t>
+  </si>
+  <si>
+    <t>Will I make money from this stock this year?</t>
+  </si>
+  <si>
+    <t>Is management confident of beating street expectations for earnings this year?</t>
+  </si>
+  <si>
+    <t>How does CEO feel about overall performance this year?</t>
+  </si>
+  <si>
+    <t>How is the company planning to reduce overheads in the near term?</t>
+  </si>
+  <si>
+    <t>Cost-income ratio seems to be trending up what does management feel about this trend in the coming year?</t>
+  </si>
+  <si>
+    <t>Which are some of the rising costs that management foresee will hit the company's bottom line this year?</t>
+  </si>
+  <si>
+    <t>Are there measures to keep rising costs in check?</t>
+  </si>
+  <si>
+    <t>How is management hedging the costs for the company?</t>
+  </si>
+  <si>
+    <t>Oil prices are rising would these rising costs be a challenge for the company?</t>
+  </si>
+  <si>
+    <t>Does the CEO feel optimistic about the rising costs in the company reversing trend?</t>
+  </si>
+  <si>
+    <t>Are there mitgation measures in place to reduce the escalating costs in the company?</t>
+  </si>
+  <si>
+    <t>TYPE OF RESPONSES:</t>
+  </si>
+  <si>
+    <t>GENERATE SENTIMENT SCORE</t>
+  </si>
+  <si>
+    <t>GENERATE KEY WORDS/ SENTENCES</t>
+  </si>
+  <si>
+    <t>There has been some new competitors on the block - What is the CEO's feel towards them?</t>
+  </si>
+  <si>
+    <t>What caused margin to decline ?</t>
+  </si>
+  <si>
+    <t>What are the impacts on gross margins?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's driving the more optimistic expectation for sales? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +468,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
@@ -285,8 +492,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +552,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -360,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -392,22 +621,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,20 +996,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5065A63F-A295-47BB-A7C9-DB14881312EE}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="144.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -752,7 +1022,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -760,7 +1030,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -768,7 +1038,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -776,7 +1046,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -784,7 +1054,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -792,7 +1062,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -800,7 +1070,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -808,7 +1078,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -816,7 +1086,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -824,7 +1094,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -832,7 +1102,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -840,42 +1110,45 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="34" t="s">
         <v>17</v>
       </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="19" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:2" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -888,43 +1161,43 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:2" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:2" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:2" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:2" s="38" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" s="6" customFormat="1" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="27" t="s">
         <v>47</v>
       </c>
     </row>
@@ -954,159 +1227,1037 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A60" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24" t="s">
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="C107" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="C108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="C109" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B529A9-400C-4B6B-95FE-74EA2BD8A7CF}">
+  <dimension ref="A2:A197"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="103.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A65" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A66" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A67" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A68" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A69" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A70" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A71" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A72" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A73" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A74" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A75" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A76" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A77" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A78" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A79" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A80" s="40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A81" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A82" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A83" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A84" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A85" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A86" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A88" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A89" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A90" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A91" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A92" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A93" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A94" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A95" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A96" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A97" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A98" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A99" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A100" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A147" s="22"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="21"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="21"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="21"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="21"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>